--- a/templates/合同导入模板.xlsx
+++ b/templates/合同导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\li.zhou_158712\Desktop\常用脚本\飞书合同拉取合同数据\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D23C71-301E-4FF3-95C3-EA5E7A2A96D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F227027-687D-48F8-9C14-C5D0BE7414DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="678">
   <si>
     <t>请勿手工删除、新增 Sheet</t>
   </si>
@@ -2061,6 +2061,18 @@
   </si>
   <si>
     <t>L创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同签订时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同归档时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4875,10 +4887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AW3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4915,9 +4927,10 @@
     <col min="44" max="44" width="15.625" style="3" customWidth="1"/>
     <col min="45" max="45" width="17.25" customWidth="1"/>
     <col min="46" max="46" width="13.75" customWidth="1"/>
+    <col min="47" max="49" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>493</v>
       </c>
@@ -5056,8 +5069,17 @@
       <c r="AT1" s="30" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU1" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="AV1" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="AW1" s="30" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -5182,7 +5204,7 @@
       </c>
       <c r="AR2"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>495</v>
       </c>

--- a/templates/合同导入模板.xlsx
+++ b/templates/合同导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\li.zhou_158712\Desktop\常用脚本\飞书合同拉取合同数据\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\li.zhou_158712\Desktop\常用脚本\50飞书合同拉取合同数据\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D0CA6-479F-4478-ABE0-A1B7F5D2C8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C27DF3-6A13-4EF8-A6D8-272904454F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,8 @@
     <sheet name="历史合同导入" sheetId="3" r:id="rId2"/>
     <sheet name="预算明细" sheetId="4" r:id="rId3"/>
     <sheet name="合同关联相对方（通用）" sheetId="5" r:id="rId4"/>
-    <sheet name="签约信息拟制表单" sheetId="6" r:id="rId5"/>
-    <sheet name="签约方" sheetId="7" r:id="rId6"/>
-    <sheet name="付款计划" sheetId="8" r:id="rId7"/>
-    <sheet name="合同正文" sheetId="9" r:id="rId8"/>
-    <sheet name="dict" sheetId="2" r:id="rId9"/>
+    <sheet name="付款计划" sheetId="8" r:id="rId5"/>
+    <sheet name="dict" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="654">
   <si>
     <t>请勿手工删除、新增 Sheet</t>
   </si>
@@ -1721,12 +1718,6 @@
     <t>张三</t>
   </si>
   <si>
-    <t>合同提报部门</t>
-  </si>
-  <si>
-    <t>请输入合同提报部门</t>
-  </si>
-  <si>
     <t>采购部</t>
   </si>
   <si>
@@ -1754,283 +1745,264 @@
     <t>1900</t>
   </si>
   <si>
-    <t>需求人</t>
+    <t>合同性质</t>
+  </si>
+  <si>
+    <t>合同分类</t>
+  </si>
+  <si>
+    <t>请输入合同编码</t>
+  </si>
+  <si>
+    <t>HT202409011</t>
+  </si>
+  <si>
+    <t>预算年度</t>
+  </si>
+  <si>
+    <t>请输入预算年度</t>
+  </si>
+  <si>
+    <t>预算部门</t>
+  </si>
+  <si>
+    <t>会计科目</t>
+  </si>
+  <si>
+    <t>请输入会计科目</t>
+  </si>
+  <si>
+    <t>业务场景</t>
+  </si>
+  <si>
+    <t>请输入业务场景</t>
+  </si>
+  <si>
+    <t>请输入项目编码</t>
+  </si>
+  <si>
+    <t>请输入产品编码</t>
+  </si>
+  <si>
+    <t>金额（含税）</t>
+  </si>
+  <si>
+    <t>请输入含税金额</t>
+  </si>
+  <si>
+    <t>税率（%）</t>
+  </si>
+  <si>
+    <t>请输入税率（%）</t>
+  </si>
+  <si>
+    <t>税额</t>
+  </si>
+  <si>
+    <t>请输入税额</t>
+  </si>
+  <si>
+    <t>金额（不含税）</t>
+  </si>
+  <si>
+    <t>请输入金额（不含税）</t>
+  </si>
+  <si>
+    <t>相对方地址</t>
+  </si>
+  <si>
+    <t>法定代表人</t>
+  </si>
+  <si>
+    <t>联系人名称</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>联系邮箱</t>
+  </si>
+  <si>
+    <t>银行账号</t>
+  </si>
+  <si>
+    <t>开户银行</t>
+  </si>
+  <si>
+    <t>纳税人识别号</t>
+  </si>
+  <si>
+    <t>开户行</t>
+  </si>
+  <si>
+    <t>银行账户</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>开票地址</t>
+  </si>
+  <si>
+    <t>交易方角色</t>
+  </si>
+  <si>
+    <t>合同中各个相对方承担的角色</t>
+  </si>
+  <si>
+    <t>甲方、乙方等</t>
+  </si>
+  <si>
+    <t>角色顺序</t>
+  </si>
+  <si>
+    <t>用阿拉伯数字表示交易方展示顺序</t>
+  </si>
+  <si>
+    <t>交易方名称</t>
+  </si>
+  <si>
+    <t>是否签署</t>
+  </si>
+  <si>
+    <t>控制该对方在合同签署环节是否需要签署</t>
+  </si>
+  <si>
+    <t>是/否</t>
+  </si>
+  <si>
+    <t>是否我方</t>
+  </si>
+  <si>
+    <t>相对方是否是我方</t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>请输入付款时间</t>
+  </si>
+  <si>
+    <t>付款条件</t>
+  </si>
+  <si>
+    <t>请输入付款条件</t>
+  </si>
+  <si>
+    <t>付款金额</t>
+  </si>
+  <si>
+    <t>请输入付款金额</t>
+  </si>
+  <si>
+    <t>是否预付</t>
+  </si>
+  <si>
+    <t>请输入是否预付</t>
+  </si>
+  <si>
+    <t>付款对象</t>
+  </si>
+  <si>
+    <t>请输入付款对象</t>
+  </si>
+  <si>
+    <t>付款说明</t>
+  </si>
+  <si>
+    <t>请输入付款说明</t>
+  </si>
+  <si>
+    <t>付款比例（%）</t>
+  </si>
+  <si>
+    <t>请输入付款比例（%）</t>
+  </si>
+  <si>
+    <t>L对方主体</t>
+  </si>
+  <si>
+    <t>签订部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便给个部门编码，用不到这个部门，标准功能绕不开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务归属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取我方的一个相对方业务编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请输入需求人|</t>
-  </si>
-  <si>
-    <t>需求人部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请输入需求人部门|</t>
-  </si>
-  <si>
-    <t>合同性质</t>
-  </si>
-  <si>
-    <t>合同分类</t>
-  </si>
-  <si>
-    <t>请输入合同编码</t>
-  </si>
-  <si>
-    <t>HT202409011</t>
-  </si>
-  <si>
-    <t>预算年度</t>
-  </si>
-  <si>
-    <t>请输入预算年度</t>
-  </si>
-  <si>
-    <t>预算部门</t>
-  </si>
-  <si>
-    <t>会计科目</t>
-  </si>
-  <si>
-    <t>请输入会计科目</t>
-  </si>
-  <si>
-    <t>业务场景</t>
-  </si>
-  <si>
-    <t>请输入业务场景</t>
-  </si>
-  <si>
-    <t>项目编码</t>
-  </si>
-  <si>
-    <t>请输入项目编码</t>
-  </si>
-  <si>
-    <t>产品编码</t>
-  </si>
-  <si>
-    <t>请输入产品编码</t>
-  </si>
-  <si>
-    <t>金额（含税）</t>
-  </si>
-  <si>
-    <t>请输入含税金额</t>
-  </si>
-  <si>
-    <t>税率（%）</t>
-  </si>
-  <si>
-    <t>请输入税率（%）</t>
-  </si>
-  <si>
-    <t>税额</t>
-  </si>
-  <si>
-    <t>请输入税额</t>
-  </si>
-  <si>
-    <t>金额（不含税）</t>
-  </si>
-  <si>
-    <t>请输入金额（不含税）</t>
-  </si>
-  <si>
-    <t>相对方地址</t>
-  </si>
-  <si>
-    <t>法定代表人</t>
-  </si>
-  <si>
-    <t>联系人名称</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>联系邮箱</t>
-  </si>
-  <si>
-    <t>银行账号</t>
-  </si>
-  <si>
-    <t>开户银行</t>
-  </si>
-  <si>
-    <t>纳税人识别号</t>
-  </si>
-  <si>
-    <t>开户行</t>
-  </si>
-  <si>
-    <t>银行账户</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>开票地址</t>
-  </si>
-  <si>
-    <t>交易方角色</t>
-  </si>
-  <si>
-    <t>合同中各个相对方承担的角色</t>
-  </si>
-  <si>
-    <t>甲方、乙方等</t>
-  </si>
-  <si>
-    <t>角色顺序</t>
-  </si>
-  <si>
-    <t>用阿拉伯数字表示交易方展示顺序</t>
-  </si>
-  <si>
-    <t>交易方名称</t>
-  </si>
-  <si>
-    <t>是否签署</t>
-  </si>
-  <si>
-    <t>控制该对方在合同签署环节是否需要签署</t>
-  </si>
-  <si>
-    <t>是/否</t>
-  </si>
-  <si>
-    <t>是否我方</t>
-  </si>
-  <si>
-    <t>相对方是否是我方</t>
-  </si>
-  <si>
-    <t>签约方式</t>
-  </si>
-  <si>
-    <t>签约方式有电签、纸质签署、混签</t>
-  </si>
-  <si>
-    <t>电签</t>
-  </si>
-  <si>
-    <t>是否我方先盖章</t>
-  </si>
-  <si>
-    <t>签署方的签约顺序</t>
-  </si>
-  <si>
-    <t>我方先签</t>
-  </si>
-  <si>
-    <t>电签、纸质签署、混签</t>
-  </si>
-  <si>
-    <t>签约方名称</t>
-  </si>
-  <si>
-    <t>签约人姓名</t>
-  </si>
-  <si>
-    <t>付款时间</t>
-  </si>
-  <si>
-    <t>请输入付款时间</t>
-  </si>
-  <si>
-    <t>付款条件</t>
-  </si>
-  <si>
-    <t>请输入付款条件</t>
-  </si>
-  <si>
-    <t>付款金额</t>
-  </si>
-  <si>
-    <t>请输入付款金额</t>
-  </si>
-  <si>
-    <t>是否预付</t>
-  </si>
-  <si>
-    <t>请输入是否预付</t>
-  </si>
-  <si>
-    <t>付款对象</t>
-  </si>
-  <si>
-    <t>请输入付款对象</t>
-  </si>
-  <si>
-    <t>付款说明</t>
-  </si>
-  <si>
-    <t>请输入付款说明</t>
-  </si>
-  <si>
-    <t>付款比例（%）</t>
-  </si>
-  <si>
-    <t>请输入付款比例（%）</t>
-  </si>
-  <si>
-    <t>来源</t>
-  </si>
-  <si>
-    <t>正文的创建来源是本地文件还是合同模板</t>
-  </si>
-  <si>
-    <t>本地文本、模板</t>
-  </si>
-  <si>
-    <t>文件名</t>
-  </si>
-  <si>
-    <t>来源选择为文件时可填</t>
-  </si>
-  <si>
-    <t>合同导入数据.docx</t>
-  </si>
-  <si>
-    <t>模板编码</t>
-  </si>
-  <si>
-    <t>来源选择是模板编码时可填</t>
-  </si>
-  <si>
-    <t>HTMB209001</t>
-  </si>
-  <si>
-    <t>本地文本/模板是否匹配</t>
-  </si>
-  <si>
-    <t>提示本地文件/模板是否匹配(系统自动补全无需手动填入)</t>
-  </si>
-  <si>
-    <t>L对方主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人部门open_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求人部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算部门（占位）</t>
+  </si>
+  <si>
+    <t>会计科目（占位）</t>
+  </si>
+  <si>
+    <t>业务场景（占位）</t>
+  </si>
+  <si>
+    <t>项目（占位）</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>产品（占位）</t>
+  </si>
+  <si>
+    <t>请输入预算部门（占位）</t>
+  </si>
+  <si>
+    <t>请输入会计科目（占位）</t>
+  </si>
+  <si>
+    <t>请输入业务场景（占位）</t>
+  </si>
+  <si>
+    <t>请输入项目（占位）</t>
+  </si>
+  <si>
+    <t>请输入产品（占位）</t>
+  </si>
+  <si>
+    <t>示例数据行,请从下一行开始维护数据</t>
   </si>
   <si>
     <t>L创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同申请时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同签订时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同归档时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同提报人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同提报部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2040,7 +2012,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2055,8 +2027,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2071,6 +2050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,7 +2074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2112,9 +2097,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2144,18 +2126,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2171,13 +2141,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2559,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AU12" sqref="AU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2592,17 +2561,23 @@
     <col min="33" max="33" width="23.5" style="6" customWidth="1"/>
     <col min="34" max="35" width="27.375" style="6" customWidth="1"/>
     <col min="36" max="37" width="15.625" style="4" customWidth="1"/>
-    <col min="38" max="39" width="15.625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="15.625" customWidth="1"/>
-    <col min="41" max="41" width="23.5" style="3" customWidth="1"/>
-    <col min="42" max="42" width="15.625" style="5" customWidth="1"/>
-    <col min="43" max="44" width="15.625" style="3" customWidth="1"/>
-    <col min="45" max="45" width="15.625" customWidth="1"/>
-    <col min="46" max="46" width="15.625" style="3" customWidth="1"/>
-    <col min="47" max="47" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="50.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="50.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.625" customWidth="1"/>
+    <col min="43" max="43" width="23.5" style="3" customWidth="1"/>
+    <col min="44" max="44" width="15.625" style="5" customWidth="1"/>
+    <col min="45" max="45" width="15.625" style="3" customWidth="1"/>
+    <col min="46" max="46" width="15.625" style="21" customWidth="1"/>
+    <col min="47" max="47" width="15.625" style="3" customWidth="1"/>
+    <col min="48" max="48" width="15.625" style="21" customWidth="1"/>
+    <col min="49" max="49" width="15.625" customWidth="1"/>
+    <col min="50" max="50" width="15.625" style="3" customWidth="1"/>
+    <col min="51" max="51" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>479</v>
       </c>
@@ -2718,52 +2693,49 @@
         <v>559</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AN1" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="AO1" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="AU1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="AV1" s="28" t="s">
-        <v>658</v>
-      </c>
-      <c r="AW1" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="AX1" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="AY1" s="28" t="s">
-        <v>661</v>
-      </c>
-      <c r="AZ1" s="29" t="s">
-        <v>662</v>
-      </c>
-      <c r="BA1" s="29" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AR1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AT1" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="AV1" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="AZ1" s="22" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>480</v>
       </c>
@@ -2878,27 +2850,35 @@
       <c r="AL2" t="s">
         <v>560</v>
       </c>
-      <c r="AM2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AM2" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN2" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="AO2" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>564</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>566</v>
       </c>
-      <c r="AO2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>571</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>574</v>
-      </c>
       <c r="AR2" t="s">
-        <v>576</v>
+        <v>569</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>635</v>
       </c>
       <c r="AT2"/>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AU2" t="s">
+        <v>636</v>
+      </c>
+      <c r="AV2"/>
+      <c r="AX2"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>481</v>
       </c>
@@ -3014,24 +2994,33 @@
         <v>561</v>
       </c>
       <c r="AM3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AN3" t="s">
+        <v>562</v>
+      </c>
+      <c r="AO3"/>
+      <c r="AP3" t="s">
         <v>29</v>
       </c>
-      <c r="AO3" t="s">
-        <v>569</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>572</v>
-      </c>
       <c r="AQ3" t="s">
+        <v>567</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>570</v>
+      </c>
+      <c r="AS3" t="s">
         <v>484</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AT3"/>
+      <c r="AU3" t="s">
         <v>484</v>
       </c>
-      <c r="AT3"/>
+      <c r="AV3"/>
+      <c r="AX3"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AC9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3116,13 +3105,13 @@
           <x14:formula1>
             <xm:f>dict!$C$2:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AN4:AN30001</xm:sqref>
+          <xm:sqref>AP4:AP30001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>dict!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AS4:AS30001</xm:sqref>
+          <xm:sqref>AW4:AW30001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3132,97 +3121,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.625" style="9" customWidth="1"/>
+    <col min="1" max="4" width="15.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="11" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2" t="s">
         <v>581</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H2" t="s">
+        <v>649</v>
+      </c>
+      <c r="I2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J2" t="s">
+        <v>650</v>
+      </c>
+      <c r="K2" t="s">
         <v>583</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>651</v>
+      </c>
+      <c r="M2" t="s">
+        <v>587</v>
+      </c>
+      <c r="N2" t="s">
+        <v>591</v>
+      </c>
+      <c r="O2" t="s">
         <v>585</v>
       </c>
-      <c r="E2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>589</v>
       </c>
-      <c r="G2" t="s">
-        <v>591</v>
-      </c>
-      <c r="H2" t="s">
-        <v>593</v>
-      </c>
-      <c r="I2" t="s">
-        <v>595</v>
-      </c>
-      <c r="J2" t="s">
-        <v>597</v>
-      </c>
-      <c r="K2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>652</v>
       </c>
       <c r="C3" t="s">
         <v>484</v>
@@ -3249,6 +3273,21 @@
         <v>484</v>
       </c>
       <c r="K3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L3" t="s">
+        <v>484</v>
+      </c>
+      <c r="M3" t="s">
+        <v>484</v>
+      </c>
+      <c r="N3" t="s">
+        <v>484</v>
+      </c>
+      <c r="O3" t="s">
+        <v>484</v>
+      </c>
+      <c r="P3" t="s">
         <v>484</v>
       </c>
     </row>
@@ -3284,72 +3323,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="15.625" style="14" customWidth="1"/>
+    <col min="1" max="13" width="15.625" style="13" customWidth="1"/>
     <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="13" customWidth="1"/>
     <col min="17" max="18" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>621</v>
+      <c r="R1" s="11" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -3364,22 +3403,22 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="O2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="R2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3394,12 +3433,12 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="R3" t="s">
         <v>42</v>
@@ -3436,140 +3475,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="17" customWidth="1"/>
-    <col min="2" max="3" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>dict!$G$2:$G$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B30001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
-          <x14:formula1>
-            <xm:f>dict!$I$2:$I$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C30001</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" style="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B3" t="s">
-        <v>629</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
-          <x14:formula1>
-            <xm:f>dict!$H$2:$H$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B30001</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -3577,70 +3482,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="19" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="7" width="15.625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="24" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>638</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>644</v>
+      <c r="B1" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="E2" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="F2" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="G2" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="H2" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
         <v>484</v>
@@ -3682,90 +3587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D2" t="s">
-        <v>653</v>
-      </c>
-      <c r="E2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
-          <x14:formula1>
-            <xm:f>dict!$J$2:$J$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B30001</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Y363"/>
   <sheetViews>

--- a/templates/合同导入模板.xlsx
+++ b/templates/合同导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\li.zhou_158712\Desktop\常用脚本\50飞书合同拉取合同数据\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C27DF3-6A13-4EF8-A6D8-272904454F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519A378-35A6-4161-9795-B9EF1B8C5370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导入说明" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="655">
   <si>
     <t>请勿手工删除、新增 Sheet</t>
   </si>
@@ -1966,43 +1966,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>会计科目（占位）</t>
+  </si>
+  <si>
+    <t>业务场景（占位）</t>
+  </si>
+  <si>
+    <t>项目（占位）</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>产品（占位）</t>
+  </si>
+  <si>
+    <t>请输入预算部门（占位）</t>
+  </si>
+  <si>
+    <t>请输入会计科目（占位）</t>
+  </si>
+  <si>
+    <t>请输入业务场景（占位）</t>
+  </si>
+  <si>
+    <t>请输入项目（占位）</t>
+  </si>
+  <si>
+    <t>请输入产品（占位）</t>
+  </si>
+  <si>
+    <t>示例数据行,请从下一行开始维护数据</t>
+  </si>
+  <si>
+    <t>L创建时间</t>
+  </si>
+  <si>
     <t>预算部门（占位）</t>
-  </si>
-  <si>
-    <t>会计科目（占位）</t>
-  </si>
-  <si>
-    <t>业务场景（占位）</t>
-  </si>
-  <si>
-    <t>项目（占位）</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>产品（占位）</t>
-  </si>
-  <si>
-    <t>请输入预算部门（占位）</t>
-  </si>
-  <si>
-    <t>请输入会计科目（占位）</t>
-  </si>
-  <si>
-    <t>请输入业务场景（占位）</t>
-  </si>
-  <si>
-    <t>请输入项目（占位）</t>
-  </si>
-  <si>
-    <t>请输入产品（占位）</t>
-  </si>
-  <si>
-    <t>示例数据行,请从下一行开始维护数据</t>
-  </si>
-  <si>
-    <t>L创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2530,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AU12" sqref="AU12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="E3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2732,7 +2737,7 @@
         <v>629</v>
       </c>
       <c r="AZ1" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
@@ -3121,27 +3126,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="15.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>479</v>
       </c>
@@ -3152,46 +3158,49 @@
         <v>577</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>646</v>
-      </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>573</v>
       </c>
@@ -3202,51 +3211,52 @@
         <v>576</v>
       </c>
       <c r="D2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" t="s">
         <v>647</v>
       </c>
-      <c r="E2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>581</v>
+      </c>
+      <c r="I2" t="s">
         <v>648</v>
       </c>
-      <c r="G2" t="s">
-        <v>581</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K2" t="s">
         <v>649</v>
       </c>
-      <c r="I2" t="s">
-        <v>582</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M2" t="s">
         <v>650</v>
       </c>
-      <c r="K2" t="s">
-        <v>583</v>
-      </c>
-      <c r="L2" t="s">
-        <v>651</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>587</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>591</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>585</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C3" t="s">
         <v>484</v>
@@ -3254,9 +3264,7 @@
       <c r="D3" t="s">
         <v>484</v>
       </c>
-      <c r="E3" t="s">
-        <v>484</v>
-      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>484</v>
       </c>
@@ -3288,12 +3296,16 @@
         <v>484</v>
       </c>
       <c r="P3" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q3" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -3301,13 +3313,13 @@
           <x14:formula1>
             <xm:f>dict!$V$2:$V$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E30001 G4:G30001</xm:sqref>
+          <xm:sqref>F4:F30001 H4:H30001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>dict!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I30001</xm:sqref>
+          <xm:sqref>J4:J30001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/templates/合同导入模板.xlsx
+++ b/templates/合同导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\li.zhou_158712\Desktop\常用脚本\50飞书合同拉取合同数据\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519A378-35A6-4161-9795-B9EF1B8C5370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3063C53-4EBA-4115-B7DC-71C6D55FC292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导入说明" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="655">
   <si>
     <t>请勿手工删除、新增 Sheet</t>
   </si>
@@ -1996,9 +1996,6 @@
     <t>请输入产品（占位）</t>
   </si>
   <si>
-    <t>示例数据行,请从下一行开始维护数据</t>
-  </si>
-  <si>
     <t>L创建时间</t>
   </si>
   <si>
@@ -2007,6 +2004,10 @@
   </si>
   <si>
     <t>成本中心组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2533,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="E3:F4"/>
+      <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2737,7 +2738,7 @@
         <v>629</v>
       </c>
       <c r="AZ1" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
@@ -3023,9 +3024,6 @@
       </c>
       <c r="AV3"/>
       <c r="AX3"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="AC9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3038,85 +3036,85 @@
           <x14:formula1>
             <xm:f>dict!$O$2:$O$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B30001</xm:sqref>
+          <xm:sqref>B4:B29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>dict!$N$2:$N$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D30001</xm:sqref>
+          <xm:sqref>D4:D29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>dict!$U$2:$U$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I30001</xm:sqref>
+          <xm:sqref>I4:I29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>dict!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J30001</xm:sqref>
+          <xm:sqref>J4:J29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>dict!$X$2:$X$29</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O30001</xm:sqref>
+          <xm:sqref>O4:O29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>dict!$Y$2:$Y$7</xm:f>
           </x14:formula1>
-          <xm:sqref>P4:P30001</xm:sqref>
+          <xm:sqref>P4:P29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>dict!$S$2:$S$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q4:Q30001</xm:sqref>
+          <xm:sqref>Q4:Q29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>dict!$T$2:$T$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R4:R30001</xm:sqref>
+          <xm:sqref>R4:R29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>dict!$R$2:$R$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AA4:AA30001</xm:sqref>
+          <xm:sqref>AA4:AA29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>dict!$P$2:$P$363</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4:AB30001</xm:sqref>
+          <xm:sqref>AB4:AB29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>dict!$W$2:$W$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AD4:AD30001</xm:sqref>
+          <xm:sqref>AD4:AD29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>dict!$Q$2:$Q$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AF4:AF30001</xm:sqref>
+          <xm:sqref>AF4:AF29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>dict!$C$2:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AP4:AP30001</xm:sqref>
+          <xm:sqref>AP4:AP29992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>dict!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4:AW30001</xm:sqref>
+          <xm:sqref>AW4:AW29992</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3126,28 +3124,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="12" width="15.625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="15" max="15" width="14.625" customWidth="1"/>
-    <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="13" width="15.625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>479</v>
       </c>
@@ -3157,50 +3157,53 @@
       <c r="C1" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>573</v>
       </c>
@@ -3210,96 +3213,46 @@
       <c r="C2" t="s">
         <v>576</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>646</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>579</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>647</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>581</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>648</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>582</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>649</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>583</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>650</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>587</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>591</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>585</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>484</v>
-      </c>
-      <c r="G3" t="s">
-        <v>484</v>
-      </c>
-      <c r="H3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I3" t="s">
-        <v>484</v>
-      </c>
-      <c r="J3" t="s">
-        <v>484</v>
-      </c>
-      <c r="K3" t="s">
-        <v>484</v>
-      </c>
-      <c r="L3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M3" t="s">
-        <v>484</v>
-      </c>
-      <c r="N3" t="s">
-        <v>484</v>
-      </c>
-      <c r="O3" t="s">
-        <v>484</v>
-      </c>
-      <c r="P3" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3313,13 +3266,13 @@
           <x14:formula1>
             <xm:f>dict!$V$2:$V$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F30001 H4:H30001</xm:sqref>
+          <xm:sqref>G3:G29987 I3:I29987</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>dict!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J30001</xm:sqref>
+          <xm:sqref>K3:K29987</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3488,80 +3441,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="7" width="15.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>573</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2"/>
+      <c r="C2" t="s">
         <v>616</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>618</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>620</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>622</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>624</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>626</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>574</v>
       </c>
-      <c r="B3" t="s">
-        <v>484</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
         <v>484</v>
       </c>
@@ -3578,12 +3536,16 @@
         <v>484</v>
       </c>
       <c r="H3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" t="s">
         <v>484</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3591,7 +3553,7 @@
           <x14:formula1>
             <xm:f>dict!$V$2:$V$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E30001</xm:sqref>
+          <xm:sqref>F4:F30001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
